--- a/電力計整備金額.xlsx
+++ b/電力計整備金額.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp-my.sharepoint.com/personal/masakazu_nishi_zs_kyocera_jp/Documents/電力計設置/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="8_{5E3D605C-6C74-429D-8839-182839EEC3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{521677EA-38BC-4370-9066-7EE2BDBD4FAC}"/>
+  <xr:revisionPtr revIDLastSave="503" documentId="8_{5E3D605C-6C74-429D-8839-182839EEC3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FB43060-ACBA-4105-8C19-0271E54BA548}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-1350" windowWidth="19440" windowHeight="14880" firstSheet="8" activeTab="10" xr2:uid="{ECCDC3D8-7139-4A8E-9D26-921ACA11007A}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="31785" firstSheet="8" activeTab="11" xr2:uid="{ECCDC3D8-7139-4A8E-9D26-921ACA11007A}"/>
   </bookViews>
   <sheets>
     <sheet name="概算の概算" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="M5StackVer. (CBN)" sheetId="8" r:id="rId9"/>
     <sheet name="M5StackVer. (RT)" sheetId="9" r:id="rId10"/>
     <sheet name="案1_30A以上＆主幹" sheetId="12" r:id="rId11"/>
+    <sheet name="案2_トップレイヤーのみ" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="93">
   <si>
     <t>電力計</t>
     <rPh sb="0" eb="3">
@@ -664,6 +665,46 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>デンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計測対象配電盤数</t>
+    <rPh sb="0" eb="4">
+      <t>ケイソクタイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ハイデンバンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品代＋無線</t>
+    <rPh sb="0" eb="3">
+      <t>ブヒンダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ムセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工事代</t>
+    <rPh sb="0" eb="2">
+      <t>コウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案1との差額</t>
+    <rPh sb="0" eb="1">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1806,8 +1847,8 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2458,6 +2499,709 @@
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H33" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2FA7E6-2E12-4175-A488-F0FF5CEBEE46}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="15">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1081</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2">
+        <v>83</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2">
+        <v>60</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2">
+        <v>107</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11640</v>
+      </c>
+      <c r="F7" s="3">
+        <f>B7*E7</f>
+        <v>884640</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2880</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ref="F7:F31" si="0">B8*E8</f>
+        <v>100800</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3220</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>109480</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>237900</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>254800</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>62400</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1550</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2">
+        <f>SUM(B8:B12)</f>
+        <v>191</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1680</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>320880</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2490</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6440</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>539000</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9">
+        <v>5</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6">
+        <v>106000</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>530000</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4480</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>31360</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4480</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
+        <v>17920</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4480</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
+        <v>17920</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4480</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>13440</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4480</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="0"/>
+        <v>31360</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="9">
+        <v>25</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="0"/>
+        <v>75000</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="K26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="2">
+        <f>B5</f>
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3820</v>
+      </c>
+      <c r="F27" s="3">
+        <f>B27*E27</f>
+        <v>229200</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="1">
+        <f>SUM(F7:F27)</f>
+        <v>3456100</v>
+      </c>
+      <c r="I27" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="1">
+        <f>H27-'案1_30A以上＆主幹'!H26</f>
+        <v>-3920420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2">
+        <f>B5</f>
+        <v>60</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>1800000</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="2">
+        <f>B5</f>
+        <v>60</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>1800000</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2">
+        <f>B5</f>
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>1800000</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="2">
+        <f>B5</f>
+        <v>60</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>1800000</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="1">
+        <f>SUM(F28:F31)</f>
+        <v>7200000</v>
+      </c>
+      <c r="I31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="1">
+        <f>H31-'案1_30A以上＆主幹'!H30</f>
+        <v>-2760000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F32" s="10">
+        <f>SUM(F7:F31)</f>
+        <v>10656100</v>
+      </c>
+      <c r="K32" s="1">
+        <f>SUM(K27:K31)</f>
+        <v>-6680420</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
